--- a/assets/sp_cetesb_infoaguas/excel/CAYA04950.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/CAYA04950.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,13 +480,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.30000000</t>
+          <t>14.90000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,18 +506,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.20000000</t>
+          <t>388.00000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -532,18 +532,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.32000000</t>
+          <t>25.20000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -558,13 +558,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>250.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -584,13 +588,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.32000000</t>
+          <t>216.00000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -610,13 +614,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Sulfeto Total</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.69000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -636,17 +644,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>37.20000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -666,18 +670,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3800000.00000000</t>
+          <t>31.30000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -692,18 +696,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.33000000</t>
+          <t>25.60000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -718,18 +722,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14.90000000</t>
+          <t>3800000.00000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -744,17 +748,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sulfeto Total</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>29.50000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -774,18 +774,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.16000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -800,18 +800,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.50000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -826,13 +826,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.27000000</t>
+          <t>0.32000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -852,18 +852,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.34000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -878,18 +878,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>216.00000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -904,13 +904,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>37.20000000</t>
+          <t>0.27000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -930,18 +930,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>8.33000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -956,18 +956,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>3.16000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -982,18 +982,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>7.40000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1008,13 +1008,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>31.30000000</t>
+          <t>24.30000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1034,18 +1034,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>250.00000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1060,18 +1060,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.40000000</t>
+          <t>5.34000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1086,18 +1086,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25.60000000</t>
+          <t>1.32000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1112,18 +1112,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>388.00000000</t>
+          <t>0.69000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1138,18 +1138,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23.70000000</t>
+          <t>35000.00000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1164,18 +1164,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23.70000000</t>
+          <t>5.02000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1216,18 +1216,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>260.00000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1242,18 +1242,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1294,13 +1298,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.58000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1320,18 +1324,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22.60000000</t>
+          <t>5.46000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1346,13 +1350,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>126.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1372,13 +1376,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.02000000</t>
+          <t>13.00000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1398,18 +1402,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>260.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1424,18 +1432,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1450,17 +1458,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1480,13 +1484,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13.00000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1506,17 +1510,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>126.00000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1536,18 +1536,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.58000000</t>
+          <t>23.70000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1562,18 +1562,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1588,18 +1588,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.46000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1614,13 +1614,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>7.08000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1640,18 +1640,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>166.00000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1666,18 +1666,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.08000000</t>
+          <t>23.70000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1692,18 +1692,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>35000.00000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1718,18 +1718,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>166.00000000</t>
+          <t>22.60000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1744,18 +1744,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>242.00000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1770,18 +1770,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>27.20000000</t>
+          <t>1200000.00000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1796,18 +1796,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>43.30000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1822,22 +1822,18 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1852,18 +1848,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>0.43000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1878,13 +1874,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>242.00000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1904,13 +1900,13 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15.10000000</t>
+          <t>28.20000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1930,13 +1926,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>184.00000000</t>
+          <t>1.06000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1956,13 +1952,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.09100000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1982,13 +1982,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>0.15000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2008,13 +2008,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.43000000</t>
+          <t>0.09100000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2034,18 +2034,18 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>429.00000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2060,13 +2060,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.06000000</t>
+          <t>21.20000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2086,13 +2086,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.15000000</t>
+          <t>16.20000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2112,18 +2112,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>43.30000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2138,13 +2138,13 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>16.20000000</t>
+          <t>15.10000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2164,18 +2164,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>38.40000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2190,18 +2190,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1200000.00000000</t>
+          <t>184.00000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2216,13 +2216,13 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2242,18 +2242,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>27.20000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2268,17 +2268,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>38.40000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2298,13 +2294,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>28.20000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2324,18 +2324,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>21.20000000</t>
+          <t>429.00000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2350,18 +2350,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>35.00000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2376,18 +2376,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>554.00000000</t>
+          <t>2.30000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2402,13 +2402,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>53.00000000</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2454,18 +2454,18 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>554.00000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2506,18 +2506,18 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>25.80000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2532,18 +2532,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>30.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2558,13 +2562,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>31.70000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2584,18 +2588,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>27000000.00000000</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2610,18 +2614,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.65000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2640,13 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>272.00000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2666,13 +2666,13 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.30000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2692,13 +2692,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>236.00000000</t>
+          <t>20.80000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2718,13 +2718,13 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2744,18 +2744,18 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>20.80000000</t>
+          <t>25.80000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2770,22 +2770,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sulfeto Total</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>30.00000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2800,13 +2796,13 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>35.00000000</t>
+          <t>2.65000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -2826,18 +2822,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>31.70000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2852,18 +2848,18 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>27000000.00000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2878,18 +2874,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>Sulfeto Total</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2904,13 +2904,13 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>53.00000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -2930,13 +2930,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>272.00000000</t>
+          <t>236.00000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -2956,16 +2956,3416 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>152.00000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>12.50000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>7.50000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>4.15000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.60000000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.50000000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>18.00000000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>168.00000000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>4.32000000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>26.10000000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sulfeto Total</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.80000000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>60.00000000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>8.61000000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>19.00000000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>18000.00000000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>18.60000000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1.40000000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.00700000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44327.48611111111</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>232.00000000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>80.50000000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>33.90000000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>57.10000000</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>25.80000000</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>670.00000000</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Sulfeto Total</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>35.50000000</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>47.80000000</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>15.20000000</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>18.40000000</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>320.00000000</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>356.00000000</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>7.70000000</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0.15000000</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>40.60000000</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0.32000000</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>3.90000000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0.67000000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>3.10000000</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>4.24000000</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0.29000000</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1.09000000</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>3000000.00000000</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0.76000000</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0.38000000</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2.21000000</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>23.00000000</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>55.40000000</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44411.4375</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>14.70000000</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>75.00000000</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>55.50000000</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0.40000000</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>31.10000000</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>25.10000000</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>88.30000000</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>31.90000000</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.19000000</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>41.70000000</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>6.21000000</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2.63000000</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>5.22000000</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0.49000000</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.90000000</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0.47000000</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>17.00000000</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>428.00000000</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.39000000</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>145.00000000</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>47.60000000</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>36.10000000</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Sulfeto Total</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>62.40000000</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>728.00000000</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>348.00000000</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>38000000.00000000</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>CAYA04950</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44525.47222222222</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>7.60000000</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
